--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2548871.046578648</v>
+        <v>-2551396.143355114</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5390582.555117323</v>
+        <v>5390582.555117322</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>103.4148794120127</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>83.62565987619416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>360.7484643922332</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.91415227521028</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
-        <v>127.0044127072328</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.91242278797893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>348.7179511956748</v>
       </c>
       <c r="F11" t="n">
-        <v>373.6636268651243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9908753685204</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>221.8738952699194</v>
+        <v>42.04191508798213</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>411.5597622095376</v>
       </c>
       <c r="H17" t="n">
-        <v>301.1420562673176</v>
+        <v>301.142056267318</v>
       </c>
       <c r="I17" t="n">
-        <v>66.17483410136181</v>
+        <v>66.1748341013614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.8008008764424</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>194.7567322889145</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7718090935986</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2274491820056</v>
       </c>
       <c r="V19" t="n">
-        <v>29.71722985261692</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>138.9048696689877</v>
       </c>
     </row>
     <row r="20">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.8008008764424</v>
+        <v>97.96504075732628</v>
       </c>
       <c r="S22" t="n">
         <v>194.7567322889145</v>
@@ -2293,7 +2293,7 @@
         <v>220.7718090935986</v>
       </c>
       <c r="U22" t="n">
-        <v>63.80703571079433</v>
+        <v>286.2274491820056</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2962,13 +2962,13 @@
         <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
         <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912466</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3673,7 +3673,7 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.050671640436</v>
       </c>
       <c r="H40" t="n">
         <v>97.77987829572822</v>
@@ -3709,13 +3709,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.261764671005</v>
+        <v>496.6790439384222</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.261764671005</v>
+        <v>496.6790439384222</v>
       </c>
       <c r="D2" t="n">
-        <v>898.996066064255</v>
+        <v>138.4133453316717</v>
       </c>
       <c r="E2" t="n">
-        <v>898.996066064255</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>898.996066064255</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1643.861604735127</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4401,22 +4401,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832259</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334911</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5024,7 +5024,7 @@
         <v>1668.228230225441</v>
       </c>
       <c r="E11" t="n">
-        <v>1282.439977627196</v>
+        <v>1315.987875482335</v>
       </c>
       <c r="F11" t="n">
         <v>905.0019706927274</v>
@@ -5282,10 +5282,10 @@
         <v>485.3127394561698</v>
       </c>
       <c r="L14" t="n">
-        <v>1250.151470823512</v>
+        <v>1223.309430718379</v>
       </c>
       <c r="M14" t="n">
-        <v>2117.788473589108</v>
+        <v>2090.946433483975</v>
       </c>
       <c r="N14" t="n">
         <v>2957.990712495065</v>
@@ -5370,10 +5370,10 @@
         <v>1382.595157086141</v>
       </c>
       <c r="O15" t="n">
-        <v>1713.145761738905</v>
+        <v>2015.727056846774</v>
       </c>
       <c r="P15" t="n">
-        <v>2274.386838539087</v>
+        <v>2261.689992693418</v>
       </c>
       <c r="Q15" t="n">
         <v>2584.167020009484</v>
@@ -5476,10 +5476,10 @@
         <v>320.689346280204</v>
       </c>
       <c r="X16" t="n">
-        <v>96.57430055301266</v>
+        <v>278.2227653832524</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57430055301266</v>
+        <v>278.2227653832524</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>467.6014625415777</v>
       </c>
       <c r="H17" t="n">
-        <v>163.417567322065</v>
+        <v>163.4175673220646</v>
       </c>
       <c r="I17" t="n">
         <v>96.57430055301266</v>
@@ -5516,25 +5516,25 @@
         <v>231.8424019116077</v>
       </c>
       <c r="K17" t="n">
-        <v>485.3127394561707</v>
+        <v>806.2166979016238</v>
       </c>
       <c r="L17" t="n">
-        <v>1223.309430718375</v>
+        <v>1498.560527145933</v>
       </c>
       <c r="M17" t="n">
-        <v>2090.946433483972</v>
+        <v>2366.19752991153</v>
       </c>
       <c r="N17" t="n">
-        <v>2957.990712495062</v>
+        <v>3233.24180892262</v>
       </c>
       <c r="O17" t="n">
-        <v>3731.528400853478</v>
+        <v>4006.779497281036</v>
       </c>
       <c r="P17" t="n">
-        <v>4354.050538532929</v>
+        <v>4629.301634960487</v>
       </c>
       <c r="Q17" t="n">
-        <v>4744.31697859754</v>
+        <v>4809.376234271792</v>
       </c>
       <c r="R17" t="n">
         <v>4828.715027650633</v>
@@ -5695,28 +5695,28 @@
         <v>1676.464531231094</v>
       </c>
       <c r="R19" t="n">
-        <v>1573.635439436708</v>
+        <v>1676.464531231094</v>
       </c>
       <c r="S19" t="n">
-        <v>1376.911467427704</v>
+        <v>1479.74055922209</v>
       </c>
       <c r="T19" t="n">
-        <v>1153.909640060432</v>
+        <v>1479.74055922209</v>
       </c>
       <c r="U19" t="n">
-        <v>864.7910045230531</v>
+        <v>1190.621923684711</v>
       </c>
       <c r="V19" t="n">
-        <v>834.7736006315208</v>
+        <v>935.9374354788239</v>
       </c>
       <c r="W19" t="n">
-        <v>545.3564305945602</v>
+        <v>646.5202654418633</v>
       </c>
       <c r="X19" t="n">
-        <v>317.3668796965428</v>
+        <v>418.530714543846</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.57430055301266</v>
+        <v>278.2227653832524</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>96.57430055301266</v>
       </c>
       <c r="J20" t="n">
-        <v>231.8424019116077</v>
+        <v>399.2480509319607</v>
       </c>
       <c r="K20" t="n">
-        <v>485.3127394561707</v>
+        <v>973.6223469219768</v>
       </c>
       <c r="L20" t="n">
-        <v>1223.309430718375</v>
+        <v>1738.461078289319</v>
       </c>
       <c r="M20" t="n">
-        <v>2090.946433483972</v>
+        <v>2301.138274237278</v>
       </c>
       <c r="N20" t="n">
-        <v>2957.990712495062</v>
+        <v>3168.182553248368</v>
       </c>
       <c r="O20" t="n">
-        <v>3731.528400853478</v>
+        <v>3941.720241606783</v>
       </c>
       <c r="P20" t="n">
-        <v>4354.050538532929</v>
+        <v>4564.242379286235</v>
       </c>
       <c r="Q20" t="n">
         <v>4744.31697859754</v>
@@ -5777,7 +5777,7 @@
         <v>4828.715027650633</v>
       </c>
       <c r="S20" t="n">
-        <v>4703.73823996382</v>
+        <v>4703.738239963821</v>
       </c>
       <c r="T20" t="n">
         <v>4494.939275151822</v>
@@ -5844,13 +5844,13 @@
         <v>1382.595157086144</v>
       </c>
       <c r="O21" t="n">
-        <v>1713.145761738908</v>
+        <v>2103.06945782287</v>
       </c>
       <c r="P21" t="n">
-        <v>2261.689992693417</v>
+        <v>2349.032393669515</v>
       </c>
       <c r="Q21" t="n">
-        <v>2584.167020009483</v>
+        <v>2608.10846308414</v>
       </c>
       <c r="R21" t="n">
         <v>2608.10846308414</v>
@@ -5932,25 +5932,25 @@
         <v>1676.464531231094</v>
       </c>
       <c r="R22" t="n">
-        <v>1573.635439436708</v>
+        <v>1577.509944607533</v>
       </c>
       <c r="S22" t="n">
-        <v>1376.911467427704</v>
+        <v>1380.785972598528</v>
       </c>
       <c r="T22" t="n">
-        <v>1153.909640060432</v>
+        <v>1157.784145231257</v>
       </c>
       <c r="U22" t="n">
-        <v>1089.458088837408</v>
+        <v>868.6655096938774</v>
       </c>
       <c r="V22" t="n">
-        <v>834.7736006315208</v>
+        <v>613.9810214879906</v>
       </c>
       <c r="W22" t="n">
-        <v>545.3564305945602</v>
+        <v>324.56385145103</v>
       </c>
       <c r="X22" t="n">
-        <v>317.3668796965428</v>
+        <v>96.57430055301266</v>
       </c>
       <c r="Y22" t="n">
         <v>96.57430055301266</v>
@@ -5987,28 +5987,28 @@
         <v>96.57430055301266</v>
       </c>
       <c r="J23" t="n">
-        <v>231.8424019116077</v>
+        <v>399.2480509319607</v>
       </c>
       <c r="K23" t="n">
-        <v>485.3127394561707</v>
+        <v>973.6223469219768</v>
       </c>
       <c r="L23" t="n">
-        <v>1250.151470823513</v>
+        <v>1738.461078289319</v>
       </c>
       <c r="M23" t="n">
-        <v>2090.946433483971</v>
+        <v>2474.586410247991</v>
       </c>
       <c r="N23" t="n">
-        <v>2957.990712495061</v>
+        <v>3341.630689259082</v>
       </c>
       <c r="O23" t="n">
-        <v>3731.528400853477</v>
+        <v>4115.168377617497</v>
       </c>
       <c r="P23" t="n">
-        <v>4354.050538532928</v>
+        <v>4419.10979420718</v>
       </c>
       <c r="Q23" t="n">
-        <v>4744.316978597539</v>
+        <v>4809.376234271791</v>
       </c>
       <c r="R23" t="n">
         <v>4828.715027650632</v>
@@ -6078,16 +6078,16 @@
         <v>996.9714001817702</v>
       </c>
       <c r="N24" t="n">
-        <v>1382.595157086144</v>
+        <v>1709.117895268664</v>
       </c>
       <c r="O24" t="n">
-        <v>1713.145761738908</v>
+        <v>2039.668499921429</v>
       </c>
       <c r="P24" t="n">
-        <v>2274.386838539091</v>
+        <v>2285.631435768074</v>
       </c>
       <c r="Q24" t="n">
-        <v>2596.863865855157</v>
+        <v>2608.10846308414</v>
       </c>
       <c r="R24" t="n">
         <v>2608.10846308414</v>
@@ -6218,31 +6218,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>304.0396960664507</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>637.8590697562972</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1088.893283004706</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676631</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F28" t="n">
         <v>364.4578361932523</v>
@@ -6385,10 +6385,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6406,28 +6406,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R28" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S28" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T28" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V28" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1088.893283004706</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676631</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160457</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819769</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6643,28 +6643,28 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6707,10 +6707,10 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,10 +6777,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,22 +6935,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M35" t="n">
-        <v>1622.425187676631</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7117,28 +7117,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,16 +7178,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7415,22 +7415,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1088.893283004706</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>1622.425187676631</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7567,10 +7567,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.425187676631</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160446</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,16 +7825,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>390.5480427270838</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>410.2337525886173</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>305.6376718261296</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.2521909220415</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>390.5480427270781</v>
+        <v>344.4340406888002</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>390.5480427270781</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>141.4733245861265</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>305.6376718261252</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>146.0359161182312</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>21.33839397833449</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>422.4003616694595</v>
+        <v>316.6734619706859</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>329.8209476591117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>32.69657299750915</v>
+        <v>21.33839397833449</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.7975057161928</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>288.7672650676784</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>19.79750571619286</v>
+        <v>107.5040408147564</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M35" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10826,19 +10826,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>329.4296048068271</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>19.79750571619286</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>426.998343622192</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>146.0713065388583</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.3047101960676</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.03570562856176</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
-        <v>125.1332306165952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>33.21241887658698</v>
       </c>
       <c r="F11" t="n">
-        <v>33.21241887658709</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.835760119117737</v>
+        <v>183.667740301055</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.8008008764424</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7718090935986</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>222.4204134712111</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>79.6797836831071</v>
       </c>
     </row>
     <row r="20">
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.835760119116159</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>222.4204134712112</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>517493.326557889</v>
+        <v>517493.3265578891</v>
       </c>
       <c r="F3" t="n">
         <v>84766.84618685291</v>
       </c>
       <c r="G3" t="n">
-        <v>7.955103455969948e-10</v>
+        <v>8.239320550273988e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="J3" t="n">
         <v>290522.6900723246</v>
@@ -26399,7 +26399,7 @@
         <v>132798.6894181358</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26436,19 +26436,19 @@
         <v>29334.9489349279</v>
       </c>
       <c r="I4" t="n">
-        <v>44792.10991314696</v>
+        <v>44792.10991314695</v>
       </c>
       <c r="J4" t="n">
+        <v>33605.653297409</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="K4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.65329740898</v>
-      </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740899</v>
@@ -26457,7 +26457,7 @@
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
     </row>
     <row r="5">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805317.8150707666</v>
+        <v>-805540.5759448662</v>
       </c>
       <c r="C6" t="n">
-        <v>-266207.7649205374</v>
+        <v>-266207.7649205375</v>
       </c>
       <c r="D6" t="n">
         <v>-266207.7649205374</v>
       </c>
       <c r="E6" t="n">
-        <v>-645402.6678508418</v>
+        <v>-645507.5012205612</v>
       </c>
       <c r="F6" t="n">
-        <v>-207795.4828804989</v>
+        <v>-207881.1953155425</v>
       </c>
       <c r="G6" t="n">
-        <v>-123028.6366936467</v>
+        <v>-123114.3491286903</v>
       </c>
       <c r="H6" t="n">
-        <v>-123028.6366936459</v>
+        <v>-123114.3491286895</v>
       </c>
       <c r="I6" t="n">
-        <v>-180015.0597271275</v>
+        <v>-180033.5766719453</v>
       </c>
       <c r="J6" t="n">
         <v>-424461.0143838357</v>
@@ -26555,7 +26555,7 @@
         <v>-266737.0137296469</v>
       </c>
       <c r="N6" t="n">
-        <v>-171518.4336063852</v>
+        <v>-171518.4336063851</v>
       </c>
       <c r="O6" t="n">
         <v>-133938.3243115111</v>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859259</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>823.8257089703811</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>446.0820447532944</v>
+        <v>446.0820447532945</v>
       </c>
       <c r="F3" t="n">
         <v>107.2393982969757</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.8914841581027</v>
+        <v>532.8914841581026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.8914841581027</v>
+        <v>532.8914841581026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.8914841581027</v>
+        <v>532.8914841581026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>279.3189622514679</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.3237863808433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.9968953246364</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.23311616204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822033</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35650,13 +35650,13 @@
         <v>256.0306439844065</v>
       </c>
       <c r="L14" t="n">
-        <v>772.5643751185272</v>
+        <v>745.4512032951606</v>
       </c>
       <c r="M14" t="n">
         <v>876.4010128945417</v>
       </c>
       <c r="N14" t="n">
-        <v>848.689130208037</v>
+        <v>875.8023020314039</v>
       </c>
       <c r="O14" t="n">
         <v>781.3512003620349</v>
@@ -35738,13 +35738,13 @@
         <v>389.5189463680534</v>
       </c>
       <c r="O15" t="n">
-        <v>333.8894996492565</v>
+        <v>639.5271714753861</v>
       </c>
       <c r="P15" t="n">
-        <v>566.9101785860425</v>
+        <v>248.4474099461054</v>
       </c>
       <c r="Q15" t="n">
-        <v>312.9092742125214</v>
+        <v>325.734371026329</v>
       </c>
       <c r="R15" t="n">
         <v>24.18327583298618</v>
@@ -35884,10 +35884,10 @@
         <v>136.6344458167626</v>
       </c>
       <c r="K17" t="n">
-        <v>256.030643984407</v>
+        <v>580.1760565555718</v>
       </c>
       <c r="L17" t="n">
-        <v>745.4512032951556</v>
+        <v>699.3372012568776</v>
       </c>
       <c r="M17" t="n">
         <v>876.4010128945424</v>
@@ -35902,10 +35902,10 @@
         <v>628.8102400802538</v>
       </c>
       <c r="Q17" t="n">
-        <v>394.2085253177884</v>
+        <v>181.8935346578837</v>
       </c>
       <c r="R17" t="n">
-        <v>85.25055459908418</v>
+        <v>19.53413472610174</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>136.6344458167626</v>
+        <v>305.7310609888364</v>
       </c>
       <c r="K20" t="n">
-        <v>256.030643984407</v>
+        <v>580.1760565555718</v>
       </c>
       <c r="L20" t="n">
-        <v>745.4512032951556</v>
+        <v>772.5643751185279</v>
       </c>
       <c r="M20" t="n">
-        <v>876.4010128945424</v>
+        <v>568.3608039878364</v>
       </c>
       <c r="N20" t="n">
         <v>875.8023020314046</v>
@@ -36139,7 +36139,7 @@
         <v>628.8102400802538</v>
       </c>
       <c r="Q20" t="n">
-        <v>394.2085253177884</v>
+        <v>181.8935346578837</v>
       </c>
       <c r="R20" t="n">
         <v>85.25055459908418</v>
@@ -36212,16 +36212,16 @@
         <v>389.518946368054</v>
       </c>
       <c r="O21" t="n">
-        <v>333.8894996492571</v>
+        <v>727.7518189259865</v>
       </c>
       <c r="P21" t="n">
-        <v>554.0850817722311</v>
+        <v>248.4474099461059</v>
       </c>
       <c r="Q21" t="n">
-        <v>325.7343710263293</v>
+        <v>261.6929994087114</v>
       </c>
       <c r="R21" t="n">
-        <v>24.18327583298633</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>136.6344458167626</v>
+        <v>305.7310609888364</v>
       </c>
       <c r="K23" t="n">
-        <v>256.030643984407</v>
+        <v>580.1760565555718</v>
       </c>
       <c r="L23" t="n">
         <v>772.5643751185279</v>
       </c>
       <c r="M23" t="n">
-        <v>849.2878410711694</v>
+        <v>743.5609413723959</v>
       </c>
       <c r="N23" t="n">
         <v>875.8023020314046</v>
@@ -36373,13 +36373,13 @@
         <v>781.3512003620356</v>
       </c>
       <c r="P23" t="n">
-        <v>628.8102400802538</v>
+        <v>307.0115319087712</v>
       </c>
       <c r="Q23" t="n">
         <v>394.2085253177884</v>
       </c>
       <c r="R23" t="n">
-        <v>85.25055459908418</v>
+        <v>19.53413472610174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>365.2964495386916</v>
       </c>
       <c r="N24" t="n">
-        <v>389.518946368054</v>
+        <v>719.3398940271657</v>
       </c>
       <c r="O24" t="n">
         <v>333.8894996492571</v>
       </c>
       <c r="P24" t="n">
-        <v>566.910178586043</v>
+        <v>248.4474099461059</v>
       </c>
       <c r="Q24" t="n">
         <v>325.7343710263293</v>
       </c>
       <c r="R24" t="n">
-        <v>11.35817901917466</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.5845066849054</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>827.6883808979052</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>475.387620108525</v>
+        <v>563.0941552070885</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M35" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37546,19 +37546,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>785.0197191991592</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37783,25 +37783,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>475.387620108525</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>965.9194594524188</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>544.8332927582302</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
